--- a/data/pca/factorExposure/factorExposure_2017-03-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01768035299634614</v>
+        <v>0.01102524261910601</v>
       </c>
       <c r="C2">
-        <v>-0.01718905030230576</v>
+        <v>-0.04256322268751716</v>
       </c>
       <c r="D2">
-        <v>0.03369122860638814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03026723162764741</v>
+      </c>
+      <c r="E2">
+        <v>0.04167074779579925</v>
+      </c>
+      <c r="F2">
+        <v>-0.003983836218068696</v>
+      </c>
+      <c r="G2">
+        <v>-0.1052852604392124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02142812689048474</v>
+        <v>0.03980977001771918</v>
       </c>
       <c r="C3">
-        <v>0.001867246969709909</v>
+        <v>-0.1004332563971786</v>
       </c>
       <c r="D3">
-        <v>0.09598244630508333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01782915447619525</v>
+      </c>
+      <c r="E3">
+        <v>0.1019966818509377</v>
+      </c>
+      <c r="F3">
+        <v>-0.01151219925029261</v>
+      </c>
+      <c r="G3">
+        <v>-0.1487284337172507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02584775375413405</v>
+        <v>0.05524236633804343</v>
       </c>
       <c r="C4">
-        <v>-0.01071761063953718</v>
+        <v>-0.06815587640735342</v>
       </c>
       <c r="D4">
-        <v>0.08216293839984347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02496607629927523</v>
+      </c>
+      <c r="E4">
+        <v>0.0376879313619694</v>
+      </c>
+      <c r="F4">
+        <v>0.004490444426676617</v>
+      </c>
+      <c r="G4">
+        <v>-0.09988790542952532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.008770727080214175</v>
+        <v>0.03586995155402967</v>
       </c>
       <c r="C6">
-        <v>-0.01235114699508325</v>
+        <v>-0.05091840159833607</v>
       </c>
       <c r="D6">
-        <v>0.07132720319269525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01730986159126036</v>
+      </c>
+      <c r="E6">
+        <v>0.04204928966014267</v>
+      </c>
+      <c r="F6">
+        <v>0.002531559760426023</v>
+      </c>
+      <c r="G6">
+        <v>-0.08636273202594943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.000427878860773113</v>
+        <v>0.02042394877836489</v>
       </c>
       <c r="C7">
-        <v>-0.01396981271286669</v>
+        <v>-0.03955288769017519</v>
       </c>
       <c r="D7">
-        <v>0.03449551080729611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01404261401970577</v>
+      </c>
+      <c r="E7">
+        <v>0.007663047200283341</v>
+      </c>
+      <c r="F7">
+        <v>-0.005439120234580938</v>
+      </c>
+      <c r="G7">
+        <v>-0.1233058532984155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.003570597378186134</v>
+        <v>0.003177004872321656</v>
       </c>
       <c r="C8">
-        <v>-0.002876395505065766</v>
+        <v>-0.02410993412714329</v>
       </c>
       <c r="D8">
-        <v>-0.009116215395587834</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004005856524038441</v>
+      </c>
+      <c r="E8">
+        <v>0.03159154430499911</v>
+      </c>
+      <c r="F8">
+        <v>0.001784313371682399</v>
+      </c>
+      <c r="G8">
+        <v>-0.07058146851365861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01108862943997056</v>
+        <v>0.03265188564099409</v>
       </c>
       <c r="C9">
-        <v>-0.01001831044652605</v>
+        <v>-0.05024397877191779</v>
       </c>
       <c r="D9">
-        <v>0.05654500536269152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.016621449497212</v>
+      </c>
+      <c r="E9">
+        <v>0.02553078590378708</v>
+      </c>
+      <c r="F9">
+        <v>0.003612317012067548</v>
+      </c>
+      <c r="G9">
+        <v>-0.1023986357662981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1491875707824164</v>
+        <v>0.09832032560487426</v>
       </c>
       <c r="C10">
-        <v>0.1041768501561365</v>
+        <v>0.1829783429845679</v>
       </c>
       <c r="D10">
-        <v>-0.1054799337712403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01561246982854602</v>
+      </c>
+      <c r="E10">
+        <v>0.01887845859994646</v>
+      </c>
+      <c r="F10">
+        <v>-0.02258154192388156</v>
+      </c>
+      <c r="G10">
+        <v>-0.05388042955225799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.002010199172137711</v>
+        <v>0.03495239795014328</v>
       </c>
       <c r="C11">
-        <v>-9.705442013663846e-05</v>
+        <v>-0.05228976653989174</v>
       </c>
       <c r="D11">
-        <v>0.05104750620834648</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002601374102918038</v>
+      </c>
+      <c r="E11">
+        <v>0.02076841470275629</v>
+      </c>
+      <c r="F11">
+        <v>0.01535387108184381</v>
+      </c>
+      <c r="G11">
+        <v>-0.09101165186266269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006576159604898183</v>
+        <v>0.03705394052721555</v>
       </c>
       <c r="C12">
-        <v>-0.002863255957689616</v>
+        <v>-0.04714465435157664</v>
       </c>
       <c r="D12">
-        <v>0.04544573938968625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006636303924618712</v>
+      </c>
+      <c r="E12">
+        <v>0.01045137315182263</v>
+      </c>
+      <c r="F12">
+        <v>-0.0009941203365205456</v>
+      </c>
+      <c r="G12">
+        <v>-0.08266350756225793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01587937148854595</v>
+        <v>0.01470946351618604</v>
       </c>
       <c r="C13">
-        <v>-0.01533242745005213</v>
+        <v>-0.04200818132879299</v>
       </c>
       <c r="D13">
-        <v>0.03513643937220166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02693361302512029</v>
+      </c>
+      <c r="E13">
+        <v>0.04098239040489491</v>
+      </c>
+      <c r="F13">
+        <v>-0.005450854549314072</v>
+      </c>
+      <c r="G13">
+        <v>-0.1423100484155659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.002326129162106247</v>
+        <v>0.008805823678031411</v>
       </c>
       <c r="C14">
-        <v>-0.006830296135658056</v>
+        <v>-0.02855139813464734</v>
       </c>
       <c r="D14">
-        <v>0.01916779913808643</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01027781870593249</v>
+      </c>
+      <c r="E14">
+        <v>0.007829973489706625</v>
+      </c>
+      <c r="F14">
+        <v>-0.01049340809553466</v>
+      </c>
+      <c r="G14">
+        <v>-0.1105667748466038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.005763965318731142</v>
+        <v>0.03357544325919096</v>
       </c>
       <c r="C16">
-        <v>0.00258853958780467</v>
+        <v>-0.04553204425170648</v>
       </c>
       <c r="D16">
-        <v>0.04024709916303194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002030222960433992</v>
+      </c>
+      <c r="E16">
+        <v>0.01555702424072086</v>
+      </c>
+      <c r="F16">
+        <v>-0.002838943473031981</v>
+      </c>
+      <c r="G16">
+        <v>-0.0926162064212642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.008288466408629812</v>
+        <v>0.02086495393835254</v>
       </c>
       <c r="C19">
-        <v>-0.01035774473307258</v>
+        <v>-0.05135749107339278</v>
       </c>
       <c r="D19">
-        <v>0.04208039042713235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02010041399722369</v>
+      </c>
+      <c r="E19">
+        <v>0.08723851520312864</v>
+      </c>
+      <c r="F19">
+        <v>0.004894287270698406</v>
+      </c>
+      <c r="G19">
+        <v>-0.1420795647112033</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.001934333084344475</v>
+        <v>0.01536050410375512</v>
       </c>
       <c r="C20">
-        <v>-0.01178905557325839</v>
+        <v>-0.04216333987892414</v>
       </c>
       <c r="D20">
-        <v>0.03516718905562004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01457012812614139</v>
+      </c>
+      <c r="E20">
+        <v>0.03868747796336518</v>
+      </c>
+      <c r="F20">
+        <v>-0.01931985366390628</v>
+      </c>
+      <c r="G20">
+        <v>-0.1125273043696357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.00422248920841233</v>
+        <v>0.01113709597539387</v>
       </c>
       <c r="C21">
-        <v>-0.01281616606503679</v>
+        <v>-0.039078278226622</v>
       </c>
       <c r="D21">
-        <v>0.01642877885054232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01961380593680844</v>
+      </c>
+      <c r="E21">
+        <v>0.04824656281880742</v>
+      </c>
+      <c r="F21">
+        <v>-0.009097339094134233</v>
+      </c>
+      <c r="G21">
+        <v>-0.1443440063721783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.00103671083366211</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006746084153394556</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.001965337780116341</v>
+      </c>
+      <c r="E22">
+        <v>0.01532877521326209</v>
+      </c>
+      <c r="F22">
+        <v>0.009300566508262532</v>
+      </c>
+      <c r="G22">
+        <v>-0.001093516898350242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001044592860606742</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.00674436805673312</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.00196265355455689</v>
+      </c>
+      <c r="E23">
+        <v>0.015305221336844</v>
+      </c>
+      <c r="F23">
+        <v>0.00929107329607199</v>
+      </c>
+      <c r="G23">
+        <v>-0.0009823341309788305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.000695248488676524</v>
+        <v>0.02919774718684395</v>
       </c>
       <c r="C24">
-        <v>-0.006096920635354536</v>
+        <v>-0.04843058587635658</v>
       </c>
       <c r="D24">
-        <v>0.04103774584126542</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007281371106183275</v>
+      </c>
+      <c r="E24">
+        <v>0.01585607281240816</v>
+      </c>
+      <c r="F24">
+        <v>0.006947857359603135</v>
+      </c>
+      <c r="G24">
+        <v>-0.09320289897597236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01574818843436866</v>
+        <v>0.04242075036203812</v>
       </c>
       <c r="C25">
-        <v>-0.002619796010112818</v>
+        <v>-0.05660797165623096</v>
       </c>
       <c r="D25">
-        <v>0.0571169255401603</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01134461907363065</v>
+      </c>
+      <c r="E25">
+        <v>0.006639109685640034</v>
+      </c>
+      <c r="F25">
+        <v>0.003365148377331405</v>
+      </c>
+      <c r="G25">
+        <v>-0.09835822022279411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01110052710426416</v>
+        <v>0.01422449376360335</v>
       </c>
       <c r="C26">
-        <v>-0.01883797945564263</v>
+        <v>-0.01190868519211841</v>
       </c>
       <c r="D26">
-        <v>-0.0003123612850069418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02421569217893161</v>
+      </c>
+      <c r="E26">
+        <v>0.009468092824698814</v>
+      </c>
+      <c r="F26">
+        <v>-0.008534176143282456</v>
+      </c>
+      <c r="G26">
+        <v>-0.08561484273861165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1958704969119327</v>
+        <v>0.1268522985429449</v>
       </c>
       <c r="C28">
-        <v>0.1192247284291385</v>
+        <v>0.2418379994267159</v>
       </c>
       <c r="D28">
-        <v>-0.1329884872878769</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006896699744668905</v>
+      </c>
+      <c r="E28">
+        <v>0.00699551911395358</v>
+      </c>
+      <c r="F28">
+        <v>-0.01955715637440037</v>
+      </c>
+      <c r="G28">
+        <v>-0.04720346860879134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006841109337962493</v>
+        <v>0.009207795146303486</v>
       </c>
       <c r="C29">
-        <v>-0.003527512166536447</v>
+        <v>-0.02334535229636355</v>
       </c>
       <c r="D29">
-        <v>0.01697161136631368</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009324079354499673</v>
+      </c>
+      <c r="E29">
+        <v>0.003723810457572966</v>
+      </c>
+      <c r="F29">
+        <v>-0.01631901318280026</v>
+      </c>
+      <c r="G29">
+        <v>-0.1026059844609107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.009424366202751951</v>
+        <v>0.04048459446372973</v>
       </c>
       <c r="C30">
-        <v>-0.02315347120284856</v>
+        <v>-0.06882023471588879</v>
       </c>
       <c r="D30">
-        <v>0.09575081042296724</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02958548484519304</v>
+      </c>
+      <c r="E30">
+        <v>0.06929220521127251</v>
+      </c>
+      <c r="F30">
+        <v>0.03202798036951147</v>
+      </c>
+      <c r="G30">
+        <v>-0.1381172445847008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0222460891799319</v>
+        <v>0.05313470392864648</v>
       </c>
       <c r="C31">
-        <v>0.008427874588127045</v>
+        <v>-0.03928019579956848</v>
       </c>
       <c r="D31">
-        <v>0.02886654333990637</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003770356791548714</v>
+      </c>
+      <c r="E31">
+        <v>-0.00368154873966222</v>
+      </c>
+      <c r="F31">
+        <v>-0.03849122852468536</v>
+      </c>
+      <c r="G31">
+        <v>-0.09626724066666688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004097043585386221</v>
+        <v>0.002534862605173777</v>
       </c>
       <c r="C32">
-        <v>0.006974172722524537</v>
+        <v>-0.02156727465307148</v>
       </c>
       <c r="D32">
-        <v>-0.00337325265172344</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002585364621966603</v>
+      </c>
+      <c r="E32">
+        <v>0.04159443939237696</v>
+      </c>
+      <c r="F32">
+        <v>0.03172342653527348</v>
+      </c>
+      <c r="G32">
+        <v>-0.09076075374552137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.008336239366910483</v>
+        <v>0.02797870564380889</v>
       </c>
       <c r="C33">
-        <v>-0.008222638204570445</v>
+        <v>-0.0511386796885237</v>
       </c>
       <c r="D33">
-        <v>0.0440484776292946</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01653378195801672</v>
+      </c>
+      <c r="E33">
+        <v>0.05026985498819053</v>
+      </c>
+      <c r="F33">
+        <v>0.008921574160884054</v>
+      </c>
+      <c r="G33">
+        <v>-0.1642204110362988</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.01206789137129951</v>
+        <v>0.04048168517552989</v>
       </c>
       <c r="C34">
-        <v>0.01399567418004898</v>
+        <v>-0.05837185971742968</v>
       </c>
       <c r="D34">
-        <v>0.05855024850639493</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004297795560080375</v>
+      </c>
+      <c r="E34">
+        <v>0.01220250747091309</v>
+      </c>
+      <c r="F34">
+        <v>0.01867513202373439</v>
+      </c>
+      <c r="G34">
+        <v>-0.0947172463477568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01248799959571645</v>
+        <v>0.01549871597224344</v>
       </c>
       <c r="C36">
-        <v>-0.004476652003783069</v>
+        <v>-0.0106599387447219</v>
       </c>
       <c r="D36">
-        <v>0.002160735789195467</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01297253921968248</v>
+      </c>
+      <c r="E36">
+        <v>0.01065563002552025</v>
+      </c>
+      <c r="F36">
+        <v>-0.008963550631349399</v>
+      </c>
+      <c r="G36">
+        <v>-0.09422451225236356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01691614796490129</v>
+        <v>0.03170298754862848</v>
       </c>
       <c r="C38">
-        <v>0.01968095137363318</v>
+        <v>-0.03007574786039321</v>
       </c>
       <c r="D38">
-        <v>0.03924772066312732</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007531037893917866</v>
+      </c>
+      <c r="E38">
+        <v>0.006441474936161746</v>
+      </c>
+      <c r="F38">
+        <v>-0.01873982718875935</v>
+      </c>
+      <c r="G38">
+        <v>-0.08458588965952027</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0118612741282514</v>
+        <v>0.03695082014513008</v>
       </c>
       <c r="C39">
-        <v>-0.01865783886939951</v>
+        <v>-0.07895822282659912</v>
       </c>
       <c r="D39">
-        <v>0.09878634516214271</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01182426974746068</v>
+      </c>
+      <c r="E39">
+        <v>0.03206327792028964</v>
+      </c>
+      <c r="F39">
+        <v>0.01777431688377623</v>
+      </c>
+      <c r="G39">
+        <v>-0.09173439878160812</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01519798991500319</v>
+        <v>0.01358052864564568</v>
       </c>
       <c r="C40">
-        <v>-0.00280730103052378</v>
+        <v>-0.03800570477946598</v>
       </c>
       <c r="D40">
-        <v>0.03071734733450817</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01488514021719104</v>
+      </c>
+      <c r="E40">
+        <v>0.03339326176230609</v>
+      </c>
+      <c r="F40">
+        <v>-0.01330292592099003</v>
+      </c>
+      <c r="G40">
+        <v>-0.1234156103766218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01368018644101083</v>
+        <v>0.01988003702995029</v>
       </c>
       <c r="C41">
-        <v>0.005145963208510918</v>
+        <v>-0.00398036577221826</v>
       </c>
       <c r="D41">
-        <v>-0.01027267475415131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004821297850831927</v>
+      </c>
+      <c r="E41">
+        <v>0.008528559738531541</v>
+      </c>
+      <c r="F41">
+        <v>-0.01598833021133887</v>
+      </c>
+      <c r="G41">
+        <v>-0.08736259468440968</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.03520298585711855</v>
+        <v>0.006965497097219522</v>
       </c>
       <c r="C42">
-        <v>-0.08657433801925626</v>
+        <v>-0.02730940590502834</v>
       </c>
       <c r="D42">
-        <v>0.09882437192414421</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08720832343251364</v>
+      </c>
+      <c r="E42">
+        <v>0.007219167109926741</v>
+      </c>
+      <c r="F42">
+        <v>-0.03970938082445105</v>
+      </c>
+      <c r="G42">
+        <v>0.02003719017225429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01428277385505958</v>
+        <v>0.0353142706216748</v>
       </c>
       <c r="C43">
-        <v>0.004619250664179246</v>
+        <v>-0.01957902657358707</v>
       </c>
       <c r="D43">
-        <v>-0.007925663140355779</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006138961021639885</v>
+      </c>
+      <c r="E43">
+        <v>0.02181210677543743</v>
+      </c>
+      <c r="F43">
+        <v>-0.01122287313661406</v>
+      </c>
+      <c r="G43">
+        <v>-0.1203571099117194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003165447303000056</v>
+        <v>0.01376087961226277</v>
       </c>
       <c r="C44">
-        <v>-0.005694449776723468</v>
+        <v>-0.0584565427540916</v>
       </c>
       <c r="D44">
-        <v>0.04884627468032481</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007010114943416317</v>
+      </c>
+      <c r="E44">
+        <v>0.02598144165903111</v>
+      </c>
+      <c r="F44">
+        <v>-0.01179582805331195</v>
+      </c>
+      <c r="G44">
+        <v>-0.1109826761740557</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.007045319330551567</v>
+        <v>0.009324354714589809</v>
       </c>
       <c r="C46">
-        <v>-0.006708607326716312</v>
+        <v>-0.01564196852871115</v>
       </c>
       <c r="D46">
-        <v>-0.002878338276324985</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01250722025648989</v>
+      </c>
+      <c r="E46">
+        <v>-0.001605765587027793</v>
+      </c>
+      <c r="F46">
+        <v>-0.02031577148891622</v>
+      </c>
+      <c r="G46">
+        <v>-0.1097706173577715</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02439566312267254</v>
+        <v>0.07878007044548863</v>
       </c>
       <c r="C47">
-        <v>0.01725247298852725</v>
+        <v>-0.06957862830526172</v>
       </c>
       <c r="D47">
-        <v>0.07786325482114405</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.005178980834703872</v>
+      </c>
+      <c r="E47">
+        <v>-0.01238616380067862</v>
+      </c>
+      <c r="F47">
+        <v>-0.05354368922466008</v>
+      </c>
+      <c r="G47">
+        <v>-0.08213620406317515</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.006961073696974043</v>
+        <v>0.01811571674239469</v>
       </c>
       <c r="C48">
-        <v>0.003025035399618892</v>
+        <v>-0.01345355041116744</v>
       </c>
       <c r="D48">
-        <v>0.01563602453074542</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.00256435350414463</v>
+      </c>
+      <c r="E48">
+        <v>0.00631862073386275</v>
+      </c>
+      <c r="F48">
+        <v>-0.0206752860410745</v>
+      </c>
+      <c r="G48">
+        <v>-0.1002959936327271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03100508112684786</v>
+        <v>0.07456947719937136</v>
       </c>
       <c r="C50">
-        <v>0.01986951053955507</v>
+        <v>-0.07287111808244934</v>
       </c>
       <c r="D50">
-        <v>0.06820810357479393</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002123357727530664</v>
+      </c>
+      <c r="E50">
+        <v>-0.008289067355848339</v>
+      </c>
+      <c r="F50">
+        <v>-0.05450419297872087</v>
+      </c>
+      <c r="G50">
+        <v>-0.0920086734262498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008440842161919303</v>
+        <v>0.01336885203344474</v>
       </c>
       <c r="C51">
-        <v>-0.001727627426695949</v>
+        <v>-0.03744462799776815</v>
       </c>
       <c r="D51">
-        <v>0.02583387393176002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01083714912603268</v>
+      </c>
+      <c r="E51">
+        <v>0.02923172845526326</v>
+      </c>
+      <c r="F51">
+        <v>0.01411346997871484</v>
+      </c>
+      <c r="G51">
+        <v>-0.1247040672348353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.03821648653967268</v>
+        <v>0.08147297402339947</v>
       </c>
       <c r="C53">
-        <v>0.0236436488605905</v>
+        <v>-0.08478664389869428</v>
       </c>
       <c r="D53">
-        <v>0.1178714356318952</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003385985558180542</v>
+      </c>
+      <c r="E53">
+        <v>-0.03020162413518066</v>
+      </c>
+      <c r="F53">
+        <v>-0.05945767867823778</v>
+      </c>
+      <c r="G53">
+        <v>-0.09005577545928667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01608851507500065</v>
+        <v>0.0319368312732394</v>
       </c>
       <c r="C54">
-        <v>0.01388397211737192</v>
+        <v>-0.01899050931515605</v>
       </c>
       <c r="D54">
-        <v>0.001262438478270638</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0009415554615848324</v>
+      </c>
+      <c r="E54">
+        <v>0.02031566019361582</v>
+      </c>
+      <c r="F54">
+        <v>-0.009831659787309488</v>
+      </c>
+      <c r="G54">
+        <v>-0.1103976249307412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0218213361987934</v>
+        <v>0.07347104157636523</v>
       </c>
       <c r="C55">
-        <v>0.01468905545719941</v>
+        <v>-0.06782441174055233</v>
       </c>
       <c r="D55">
-        <v>0.09700355168365199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005186447478408502</v>
+      </c>
+      <c r="E55">
+        <v>-0.02862009199057997</v>
+      </c>
+      <c r="F55">
+        <v>-0.05938092921818521</v>
+      </c>
+      <c r="G55">
+        <v>-0.06524551741809065</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.044440140509874</v>
+        <v>0.1359381398343442</v>
       </c>
       <c r="C56">
-        <v>0.03259593085322642</v>
+        <v>-0.1078529113265565</v>
       </c>
       <c r="D56">
-        <v>0.1578019489717307</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01300540427381817</v>
+      </c>
+      <c r="E56">
+        <v>-0.04035183347614132</v>
+      </c>
+      <c r="F56">
+        <v>-0.07317596439595744</v>
+      </c>
+      <c r="G56">
+        <v>-0.03632683285243794</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01815871264268253</v>
+        <v>0.005429485753332563</v>
       </c>
       <c r="C57">
-        <v>-0.01480711468901635</v>
+        <v>-0.005912619536357715</v>
       </c>
       <c r="D57">
-        <v>0.02981013177468136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02265869966798627</v>
+      </c>
+      <c r="E57">
+        <v>0.02486046865306192</v>
+      </c>
+      <c r="F57">
+        <v>0.003632198532923193</v>
+      </c>
+      <c r="G57">
+        <v>-0.0218162611515964</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.009481227577010845</v>
+        <v>0.04670281801696553</v>
       </c>
       <c r="C58">
-        <v>-0.01008893664996349</v>
+        <v>-0.04705754286519073</v>
       </c>
       <c r="D58">
-        <v>0.2073149461989936</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02399274426061864</v>
+      </c>
+      <c r="E58">
+        <v>0.8610444583110293</v>
+      </c>
+      <c r="F58">
+        <v>-0.3949586032426846</v>
+      </c>
+      <c r="G58">
+        <v>0.2472332833909735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.2187154752185223</v>
+        <v>0.1588363020954622</v>
       </c>
       <c r="C59">
-        <v>0.1393248807487246</v>
+        <v>0.2078878441827482</v>
       </c>
       <c r="D59">
-        <v>-0.1095469275575327</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01143472616221008</v>
+      </c>
+      <c r="E59">
+        <v>0.02430629112916538</v>
+      </c>
+      <c r="F59">
+        <v>-0.005370571335036635</v>
+      </c>
+      <c r="G59">
+        <v>-0.04179763831878885</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2001796395424031</v>
+        <v>0.2896632904904475</v>
       </c>
       <c r="C60">
-        <v>0.1042109464964096</v>
+        <v>-0.111709941044491</v>
       </c>
       <c r="D60">
-        <v>0.1927292302829618</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01298741391429467</v>
+      </c>
+      <c r="E60">
+        <v>0.05639387174890377</v>
+      </c>
+      <c r="F60">
+        <v>0.3435759026559541</v>
+      </c>
+      <c r="G60">
+        <v>0.1647775249673401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0004611846885276177</v>
+        <v>0.0386683356420745</v>
       </c>
       <c r="C61">
-        <v>-0.004923555977870184</v>
+        <v>-0.06532017739517515</v>
       </c>
       <c r="D61">
-        <v>0.07792536985036565</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.006019556996536611</v>
+      </c>
+      <c r="E61">
+        <v>0.02881110456075383</v>
+      </c>
+      <c r="F61">
+        <v>0.01205036044800538</v>
+      </c>
+      <c r="G61">
+        <v>-0.09935314850372914</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.003451482013802004</v>
+        <v>0.01468435900019244</v>
       </c>
       <c r="C63">
-        <v>-0.006620074267404507</v>
+        <v>-0.03080803510143122</v>
       </c>
       <c r="D63">
-        <v>0.02179753619912499</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008861718283867817</v>
+      </c>
+      <c r="E63">
+        <v>0.006022507171087612</v>
+      </c>
+      <c r="F63">
+        <v>-0.01467136974045531</v>
+      </c>
+      <c r="G63">
+        <v>-0.09544873097435763</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02475331703028355</v>
+        <v>0.04923632405093278</v>
       </c>
       <c r="C64">
-        <v>0.009436575306027888</v>
+        <v>-0.04722376960221829</v>
       </c>
       <c r="D64">
-        <v>0.05288047841258675</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006157710216097675</v>
+      </c>
+      <c r="E64">
+        <v>0.004807152319422198</v>
+      </c>
+      <c r="F64">
+        <v>0.001245559417240729</v>
+      </c>
+      <c r="G64">
+        <v>-0.09913242918445148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.03224027578404128</v>
+        <v>0.0747785915227908</v>
       </c>
       <c r="C65">
-        <v>7.582437817443779e-05</v>
+        <v>-0.05893926981459174</v>
       </c>
       <c r="D65">
-        <v>0.1112369871512703</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01698757172440228</v>
+      </c>
+      <c r="E65">
+        <v>0.04697637394712464</v>
+      </c>
+      <c r="F65">
+        <v>0.02134798366566849</v>
+      </c>
+      <c r="G65">
+        <v>-0.04366169260554813</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.01164821961534919</v>
+        <v>0.04998638474834022</v>
       </c>
       <c r="C66">
-        <v>-0.01848124120672767</v>
+        <v>-0.1054648522990174</v>
       </c>
       <c r="D66">
-        <v>0.1393960538226286</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01216723643968278</v>
+      </c>
+      <c r="E66">
+        <v>0.04800138858175973</v>
+      </c>
+      <c r="F66">
+        <v>0.02826444578434156</v>
+      </c>
+      <c r="G66">
+        <v>-0.10625153740565</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.03882146935875525</v>
+        <v>0.05505673500576625</v>
       </c>
       <c r="C67">
-        <v>0.0294115972668621</v>
+        <v>-0.0343044543278426</v>
       </c>
       <c r="D67">
-        <v>0.06207620471632239</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006177205889874682</v>
+      </c>
+      <c r="E67">
+        <v>-0.004171623476695472</v>
+      </c>
+      <c r="F67">
+        <v>-0.01733553290986776</v>
+      </c>
+      <c r="G67">
+        <v>-0.07093027564991577</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.2294752211654751</v>
+        <v>0.1571397045711305</v>
       </c>
       <c r="C68">
-        <v>0.12395980978547</v>
+        <v>0.2709251463118337</v>
       </c>
       <c r="D68">
-        <v>-0.1687443361145223</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005398941789218357</v>
+      </c>
+      <c r="E68">
+        <v>0.007875002977616204</v>
+      </c>
+      <c r="F68">
+        <v>-0.04512762379937738</v>
+      </c>
+      <c r="G68">
+        <v>-0.02754990504423791</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.02881205868044132</v>
+        <v>0.08234420751202425</v>
       </c>
       <c r="C69">
-        <v>0.02455347655707595</v>
+        <v>-0.07249519249212018</v>
       </c>
       <c r="D69">
-        <v>0.08076777165605704</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009129241816039978</v>
+      </c>
+      <c r="E69">
+        <v>-0.0258264035410741</v>
+      </c>
+      <c r="F69">
+        <v>-0.03562657301147178</v>
+      </c>
+      <c r="G69">
+        <v>-0.1003932765947042</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.18685051346013</v>
+        <v>0.1417116641606298</v>
       </c>
       <c r="C71">
-        <v>0.1082975291945109</v>
+        <v>0.2285698478226475</v>
       </c>
       <c r="D71">
-        <v>-0.1126147003418935</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002786787179304373</v>
+      </c>
+      <c r="E71">
+        <v>0.03165906710965546</v>
+      </c>
+      <c r="F71">
+        <v>-0.03184968624075933</v>
+      </c>
+      <c r="G71">
+        <v>-0.07026657731680212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.01723898536079573</v>
+        <v>0.08658112945380871</v>
       </c>
       <c r="C72">
-        <v>0.01780871949429753</v>
+        <v>-0.06906818503332454</v>
       </c>
       <c r="D72">
-        <v>0.09668769305800813</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008687840665882704</v>
+      </c>
+      <c r="E72">
+        <v>-0.008911425823353754</v>
+      </c>
+      <c r="F72">
+        <v>0.03072552917053687</v>
+      </c>
+      <c r="G72">
+        <v>-0.088795174287415</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2500878879504453</v>
+        <v>0.376233610293563</v>
       </c>
       <c r="C73">
-        <v>0.1244684687830108</v>
+        <v>-0.1153739315518997</v>
       </c>
       <c r="D73">
-        <v>0.2967439467556445</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02307914312287664</v>
+      </c>
+      <c r="E73">
+        <v>0.1572799793608013</v>
+      </c>
+      <c r="F73">
+        <v>0.5673096646401143</v>
+      </c>
+      <c r="G73">
+        <v>0.2848756924707266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.0464773330046151</v>
+        <v>0.1057826071950662</v>
       </c>
       <c r="C74">
-        <v>0.03503102614816866</v>
+        <v>-0.1097732353757898</v>
       </c>
       <c r="D74">
-        <v>0.1702609229998068</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009446882401352183</v>
+      </c>
+      <c r="E74">
+        <v>-0.01446617315229037</v>
+      </c>
+      <c r="F74">
+        <v>-0.06611139835747816</v>
+      </c>
+      <c r="G74">
+        <v>-0.07804912358830522</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1159635611994813</v>
+        <v>0.2482892008519077</v>
       </c>
       <c r="C75">
-        <v>0.08284284530585702</v>
+        <v>-0.1514161777000222</v>
       </c>
       <c r="D75">
-        <v>0.2931688642192924</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03151246106715892</v>
+      </c>
+      <c r="E75">
+        <v>-0.08781755551547689</v>
+      </c>
+      <c r="F75">
+        <v>-0.1575409365901457</v>
+      </c>
+      <c r="G75">
+        <v>0.02857641765642518</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.04900492717479529</v>
+        <v>0.1178230557297965</v>
       </c>
       <c r="C76">
-        <v>0.04201880123007489</v>
+        <v>-0.1113485251023543</v>
       </c>
       <c r="D76">
-        <v>0.1954353444977598</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01751862624039277</v>
+      </c>
+      <c r="E76">
+        <v>-0.03557131931088615</v>
+      </c>
+      <c r="F76">
+        <v>-0.09304239340794593</v>
+      </c>
+      <c r="G76">
+        <v>-0.05617419778097174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01719441576383479</v>
+        <v>0.06965071789454995</v>
       </c>
       <c r="C77">
-        <v>-0.0002457180414903102</v>
+        <v>-0.05848272972342774</v>
       </c>
       <c r="D77">
-        <v>0.08259753583603301</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01028599067864094</v>
+      </c>
+      <c r="E77">
+        <v>0.05431561242532916</v>
+      </c>
+      <c r="F77">
+        <v>0.000704935502808449</v>
+      </c>
+      <c r="G77">
+        <v>-0.06892412301197393</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.008501099776159805</v>
+        <v>0.04240478478553088</v>
       </c>
       <c r="C78">
-        <v>0.0001090373257613963</v>
+        <v>-0.05070187546596071</v>
       </c>
       <c r="D78">
-        <v>0.06783676214128601</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.006353494972387218</v>
+      </c>
+      <c r="E78">
+        <v>0.03693626639959573</v>
+      </c>
+      <c r="F78">
+        <v>0.03055619741441723</v>
+      </c>
+      <c r="G78">
+        <v>-0.1019671633394146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001031967043875498</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0005579348743837922</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0003819450230873211</v>
+      </c>
+      <c r="E79">
+        <v>0.003976034263607906</v>
+      </c>
+      <c r="F79">
+        <v>0.001419492486760221</v>
+      </c>
+      <c r="G79">
+        <v>-0.002070681804268165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03469649316558952</v>
+        <v>0.04350176735721607</v>
       </c>
       <c r="C80">
-        <v>0.007878341069434218</v>
+        <v>-0.04968440141561233</v>
       </c>
       <c r="D80">
-        <v>0.08250270971964349</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01336641536201676</v>
+      </c>
+      <c r="E80">
+        <v>0.02923524236758115</v>
+      </c>
+      <c r="F80">
+        <v>0.004655392734126521</v>
+      </c>
+      <c r="G80">
+        <v>-0.05437411344920098</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.06035659554982467</v>
+        <v>0.138118061445499</v>
       </c>
       <c r="C81">
-        <v>0.04278607067143422</v>
+        <v>-0.09793396360537679</v>
       </c>
       <c r="D81">
-        <v>0.1692082734275034</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01531378201206312</v>
+      </c>
+      <c r="E81">
+        <v>-0.0511106623632273</v>
+      </c>
+      <c r="F81">
+        <v>-0.1219783564537743</v>
+      </c>
+      <c r="G81">
+        <v>-0.02047143585113164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.003085816495840423</v>
+        <v>0.1430901519736017</v>
       </c>
       <c r="C82">
-        <v>0.001883630524170198</v>
+        <v>-0.08343117276146768</v>
       </c>
       <c r="D82">
-        <v>0.001925585596628801</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01131102799153908</v>
+      </c>
+      <c r="E82">
+        <v>-0.1196574107906837</v>
+      </c>
+      <c r="F82">
+        <v>-0.05496101252935776</v>
+      </c>
+      <c r="G82">
+        <v>-0.05484627103742747</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01300912370915941</v>
+        <v>0.03472490187279333</v>
       </c>
       <c r="C83">
-        <v>0.003482572407209466</v>
+        <v>-0.02986055628701646</v>
       </c>
       <c r="D83">
-        <v>0.01954659082466863</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006043637303899259</v>
+      </c>
+      <c r="E83">
+        <v>0.03198673195484482</v>
+      </c>
+      <c r="F83">
+        <v>0.02612381386050869</v>
+      </c>
+      <c r="G83">
+        <v>-0.06077604505526152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.09952547171058643</v>
+        <v>0.2091275753831283</v>
       </c>
       <c r="C85">
-        <v>0.05895537139071456</v>
+        <v>-0.1469602703376666</v>
       </c>
       <c r="D85">
-        <v>0.2534244023311041</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01722917158327612</v>
+      </c>
+      <c r="E85">
+        <v>-0.1128225056813523</v>
+      </c>
+      <c r="F85">
+        <v>-0.09437040565711377</v>
+      </c>
+      <c r="G85">
+        <v>0.06610497602218258</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01191663392354967</v>
+        <v>0.01361828287312622</v>
       </c>
       <c r="C86">
-        <v>0.001185920247782201</v>
+        <v>-0.02882561786052765</v>
       </c>
       <c r="D86">
-        <v>0.04267649403936467</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01165120398748277</v>
+      </c>
+      <c r="E86">
+        <v>0.05083675348235208</v>
+      </c>
+      <c r="F86">
+        <v>0.007991517764368196</v>
+      </c>
+      <c r="G86">
+        <v>-0.1913523814608395</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007268481414328725</v>
+        <v>0.02208471441546599</v>
       </c>
       <c r="C87">
-        <v>-0.01434138019449947</v>
+        <v>-0.01942206396069928</v>
       </c>
       <c r="D87">
-        <v>0.033283559010186</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01242782406362531</v>
+      </c>
+      <c r="E87">
+        <v>0.100117627218041</v>
+      </c>
+      <c r="F87">
+        <v>-0.008961160105805862</v>
+      </c>
+      <c r="G87">
+        <v>-0.1234400841779402</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.04734614374423526</v>
+        <v>0.09378347772090168</v>
       </c>
       <c r="C88">
-        <v>0.002354981962180194</v>
+        <v>-0.06884246833933046</v>
       </c>
       <c r="D88">
-        <v>0.04357155740972705</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02205315424641147</v>
+      </c>
+      <c r="E88">
+        <v>-0.005947094696850606</v>
+      </c>
+      <c r="F88">
+        <v>-0.01922697045580005</v>
+      </c>
+      <c r="G88">
+        <v>-0.1033461461892848</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.3379030540774211</v>
+        <v>0.2306306357606843</v>
       </c>
       <c r="C89">
-        <v>0.1921131475927842</v>
+        <v>0.3684316308608713</v>
       </c>
       <c r="D89">
-        <v>-0.208512079974538</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0001227905042934858</v>
+      </c>
+      <c r="E89">
+        <v>-0.02008374001739664</v>
+      </c>
+      <c r="F89">
+        <v>-0.02263125008737017</v>
+      </c>
+      <c r="G89">
+        <v>-0.07013610890585914</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2833892742793427</v>
+        <v>0.2080792134441793</v>
       </c>
       <c r="C90">
-        <v>0.1647136104453817</v>
+        <v>0.3169735292141284</v>
       </c>
       <c r="D90">
-        <v>-0.182824385782009</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004597677448838294</v>
+      </c>
+      <c r="E90">
+        <v>-0.0009151824127334318</v>
+      </c>
+      <c r="F90">
+        <v>-0.0504798199224067</v>
+      </c>
+      <c r="G90">
+        <v>-0.045367256837699</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.09433774874940769</v>
+        <v>0.1857714594094637</v>
       </c>
       <c r="C91">
-        <v>0.07023046956201201</v>
+        <v>-0.1395302055877578</v>
       </c>
       <c r="D91">
-        <v>0.2207531466596814</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02239092819223806</v>
+      </c>
+      <c r="E91">
+        <v>-0.07936593692945414</v>
+      </c>
+      <c r="F91">
+        <v>-0.1281955742257686</v>
+      </c>
+      <c r="G91">
+        <v>-0.0273823772577028</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2376040807250863</v>
+        <v>0.1995228195520898</v>
       </c>
       <c r="C92">
-        <v>0.1742965337164548</v>
+        <v>0.2565552653531286</v>
       </c>
       <c r="D92">
-        <v>-0.09560553520764495</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03839128503248968</v>
+      </c>
+      <c r="E92">
+        <v>0.03012978474952199</v>
+      </c>
+      <c r="F92">
+        <v>-0.06618804579292796</v>
+      </c>
+      <c r="G92">
+        <v>-0.114072719454715</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.3010323371452248</v>
+        <v>0.2323858108681482</v>
       </c>
       <c r="C93">
-        <v>0.181874899312545</v>
+        <v>0.3115204187796211</v>
       </c>
       <c r="D93">
-        <v>-0.145242986021296</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01145505878878265</v>
+      </c>
+      <c r="E93">
+        <v>0.001634707354016914</v>
+      </c>
+      <c r="F93">
+        <v>-0.04451381858930447</v>
+      </c>
+      <c r="G93">
+        <v>-0.05650269046044729</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1308540841320292</v>
+        <v>0.3193773037448757</v>
       </c>
       <c r="C94">
-        <v>0.06898910570003886</v>
+        <v>-0.1835969140507468</v>
       </c>
       <c r="D94">
-        <v>0.2630654945453829</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02071736147911152</v>
+      </c>
+      <c r="E94">
+        <v>-0.2842893500903008</v>
+      </c>
+      <c r="F94">
+        <v>-0.4408634890054658</v>
+      </c>
+      <c r="G94">
+        <v>0.3994271352649927</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.00163674016117301</v>
+        <v>0.09595223853104778</v>
       </c>
       <c r="C95">
-        <v>0.007988551988070105</v>
+        <v>-0.08505927227185477</v>
       </c>
       <c r="D95">
-        <v>0.1257883166770216</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009537441995052333</v>
+      </c>
+      <c r="E95">
+        <v>0.09922797273038286</v>
+      </c>
+      <c r="F95">
+        <v>0.1597123180489492</v>
+      </c>
+      <c r="G95">
+        <v>-0.03038268872082814</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.137029818187641</v>
+        <v>0.1931610184418512</v>
       </c>
       <c r="C98">
-        <v>0.09774541390918721</v>
+        <v>-0.04407916017954845</v>
       </c>
       <c r="D98">
-        <v>0.1314904385950253</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01205646245841486</v>
+      </c>
+      <c r="E98">
+        <v>0.10559741835099</v>
+      </c>
+      <c r="F98">
+        <v>0.2300580291288039</v>
+      </c>
+      <c r="G98">
+        <v>0.02503389864102594</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006477491571097204</v>
+        <v>0.008975380002909464</v>
       </c>
       <c r="C101">
-        <v>-0.003581918347496842</v>
+        <v>-0.02332477748865432</v>
       </c>
       <c r="D101">
-        <v>0.01721325602898161</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009152155472738704</v>
+      </c>
+      <c r="E101">
+        <v>0.0034535714030514</v>
+      </c>
+      <c r="F101">
+        <v>-0.01720048291081297</v>
+      </c>
+      <c r="G101">
+        <v>-0.1016916552498186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.0563117995953381</v>
+        <v>0.1148553706407253</v>
       </c>
       <c r="C102">
-        <v>0.02538946096639108</v>
+        <v>-0.08198809321244258</v>
       </c>
       <c r="D102">
-        <v>0.1284821571898571</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0006440522771688799</v>
+      </c>
+      <c r="E102">
+        <v>-0.04098305168447353</v>
+      </c>
+      <c r="F102">
+        <v>-0.03687340336031492</v>
+      </c>
+      <c r="G102">
+        <v>-0.01070873013936037</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.5094213714057928</v>
+        <v>0.02142079075758542</v>
       </c>
       <c r="C104">
-        <v>-0.850016397883855</v>
+        <v>0.02981555889969636</v>
       </c>
       <c r="D104">
-        <v>-0.02852562748854486</v>
+        <v>-0.9876711703529052</v>
+      </c>
+      <c r="E104">
+        <v>-0.05893280035003208</v>
+      </c>
+      <c r="F104">
+        <v>-0.02971058980905582</v>
+      </c>
+      <c r="G104">
+        <v>0.04087157315605039</v>
       </c>
     </row>
   </sheetData>
